--- a/public/coachData/Leadership Coach Bot Metadata.xlsx
+++ b/public/coachData/Leadership Coach Bot Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwu233/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75070CED-E5E3-2C4E-A597-B04899056361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316C6BE-63B0-5342-9C53-C6072DE9B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -386,6 +386,24 @@
   </si>
   <si>
     <t>https://demoURL8.com</t>
+  </si>
+  <si>
+    <t>jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey team, I hope you have a fantastic week. I wanted to get a quick video out today. It's it's been a bit since I sent one out. Some of you may know I'm in the process of moving downsizing actually from our house in Atlanta and moving out here to. Boston full time. What I could tell you in short is get a little old. And I don't have as much energy as I used to, so this is pretty taxing. And my wife and I have accumulated a lot of stuff over the years, Most of it I didn't even remember we had. So that's why I've been a little, little absent. I promise we'll be back on track. Soon and I'll get these videos out or more frequently. But today's video a little bittersweet news team, our very own Christy Knowles who's been with us since the beginning. She is legit. OG Digital is taking a another role inside of Cloud Digital. Reach out. Let me just tell you why That's a great thing. First, it's great for Chrissy. This is a really good role. Chrissy has aspired to get out and get back into a client services role and she's going to be working on a huge account for the firm, actually a several year engagement. So I know that the client will enjoy her. Advice and expertise and just a huge brain she brings to the table as well as her sparkling personality of course. And I know the cloud and digital team is going to really see Earth thrive as she starts her career journey with them. Hey second team, I've said this but passed on a few of the videos. It's awesome to be able. To reinvent yourself at this firm and not have to leave the firm. So I'm excited for Chrissy to see what she does over cloud digital and she's gonna be looking out for us, right? Is there's opportunities to pull our team in. She's gonna be doing that. There's nobody better in the practice to be able to to look for opportunities for our assets than Chris. She works out with the clients. So best of luck Chrissy, and thank you for everything you've done for us over the many years that you've been with digital. Second, her role the the platform engagement lead role that she served for Collegial is going to be served by Andrew Morton. Andrew currently manages our SG portfolio doing an out. Planning job there. He is also going to pick up serving our cloud and digital team as a platform engagement. Also Andrews gonna dual hat for a bit. He's really, really good. So he'll be able to pull it off without any issues and we'll all rally behind you and support that. So congratulations to Chrissy's. Best of luck to you and thank you. For everything you've done. And Andrew, I can't wait to see what you do in the new role, buddy. Thanks for everything you're doing team. We'll talk soon. Bye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 Happy Monday Hope you had a great weekend. I wanted to get a video out here as we start our work week and just give a quick update on kind of some things we're doing in the business first, but. Things are locked, so I know we've been waiting. It's mid August already. We've been going back and forth with a few final teams to lock in some numbers. So at this point I think we're 98.9. Walked in on all our product budgets. Chip and the finance team will be communicating that to all the various product teams, application groups this week. So if you have any questions, call me, call Chip. We're here to help. Manage those budgets, we we learned a lot last year. We added a lot of new processes. I think you're going to see a lot more detail in our ability to report and track where those dollars are going and the impact that we're making on the business this year. So I'm. We're happy with where we're at as we start to hear. They're not on our respective road map, so nothing, nothing crazy there other than we just need to manage our budgets appropriately, We good stewards of we're doing here at the firm. Shut off a huge project. Well, it's time as we continue to grow up to get a little more methodical and and process oriented. I didn't say bureaucratic or adding red tape, but the the relationships that you've all built with each other and ability to. Call different groups and pull strings and make things happen, Let's not let go of that. But as we continue to grow and scale, I think we're going to need to add a lot more process and integration between the studios and the prop. Team So you're going to see a lot more in the coming weeks and months ahead with some new initiatives that we have to really tie digital more more tightly together across the studios now that we have them created. So exciting stuff, nothing's broke, this is all. As part of how we grow up and continue to meet the demands coming from the firm. So team, once again, thanks for everything you're doing. Have a great week and then we'll talk soon.</t>
+  </si>
+  <si>
+    <t>Hey team, I hope you had a great first week back. Welcome to FY24. I don't know about you, but this first week felt like a whole quarter. But we'll get through our inboxes and. To come back up soon enough, so welcome to the new Year. Let's make it a great one. A few PSA's as we start off the new fiscal year first. Next Friday we're hosting a master class on Jen AI Go Search. Your inboxes find that invite, let's get signed up and get as many people in attendance as possible. Couple reasons, one, just really good for everybody to be grounded here in Team Digital on what we as a firm are doing around the investments in Gen. AI, some really exciting stuff. So I can't wait for you all to go to. That master Class 2A little friendly hat tip. There's a potential that there might be a little friendly competition at the Kolo regarding the knowledge you're going to learn out of the gym. I class, so get out there and sign up. Team, please, please, please second the colors coming up. Look, we always have the team that puts these colors together, I think does a tremendous job and and I can't wait to go through the next one with all of you and your respective cities. So get out there, sign up, make every attempt effort you can to get into. Since that day, I think it's going to be a ton of fun and very educational. So look forward to seeing you all at the Kolo. Last one here, a little nuanced, there was an e-mail that came out regarding our our business. Entity and changing your legal name inside of your e-mail tag should change it all to PVC Product Sales LLC. Go back and find that e-mail. Make those updates that that changes effective July. One, if you need help, reach out to me or any member of the leadership team. We can help you through that. If you can't find the e-mail, but go back and look for that e-mail. I think it came out a couple weeks ago. Pretty easy change, but the time is here. Change your change your tag line in your e-mail. So team, let's really make FY24 a great one. My ask is this is our year to really double down on discipline, on standards, on on the the quality that I know you all can. Bring to the product and tech assets that we're building for the firm. So have a great weekend, we'll talk soon.</t>
+  </si>
+  <si>
+    <t>Friday Video talk</t>
+  </si>
+  <si>
+    <t>GenAI talk</t>
   </si>
 </sst>
 </file>
@@ -465,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -488,11 +506,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,6 +535,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,10 +1343,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1594,8 +1629,42 @@
       </c>
       <c r="F17" s="4"/>
     </row>
+    <row r="18" spans="1:6" ht="264" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="206" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
